--- a/output/fit_clients/fit_round_410.xlsx
+++ b/output/fit_clients/fit_round_410.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2200296277.927153</v>
+        <v>2012940119.066269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1143863330441528</v>
+        <v>0.08354155465253685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04091892395876025</v>
+        <v>0.03834514275451038</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1100148161.555667</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1663493875.097912</v>
+        <v>1736436644.728523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1843592358371121</v>
+        <v>0.1814491277742092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03530091921982536</v>
+        <v>0.04889288163301318</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>831746925.504824</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4535888336.749414</v>
+        <v>4815826723.021707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1140978028753742</v>
+        <v>0.1145474369967366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03075254756990128</v>
+        <v>0.02378056169648251</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>148</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2267944220.544846</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4259175638.851761</v>
+        <v>2671363696.919903</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09040244584211674</v>
+        <v>0.07167678566042755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04500845740931607</v>
+        <v>0.04311979629991702</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>151</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2129587806.010101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2676673512.638463</v>
+        <v>1958025288.409744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434619370220709</v>
+        <v>0.1006201593174557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03984482936161989</v>
+        <v>0.03842025121220408</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1338336712.696978</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2912878619.355201</v>
+        <v>1970932285.236473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0793513868417126</v>
+        <v>0.07404163204353575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04232860063765063</v>
+        <v>0.03365305306104278</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>129</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1456439282.981542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2893774445.411512</v>
+        <v>2445410277.595073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2035074909988478</v>
+        <v>0.1650870441158133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03152884908296417</v>
+        <v>0.03274052299682575</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1446887269.377852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117528202.835777</v>
+        <v>1889484958.038337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1532266577920579</v>
+        <v>0.1967513470541307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02969596703764623</v>
+        <v>0.02707794907488413</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1058764111.738149</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5818384132.124045</v>
+        <v>3763686285.425916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1817041978020597</v>
+        <v>0.1983907425802947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04715673464497291</v>
+        <v>0.05371258130373549</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>172</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2909192228.739625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3611241017.478642</v>
+        <v>3962240947.632831</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1291091876842049</v>
+        <v>0.1411484010037157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03039110857508278</v>
+        <v>0.04327041804929537</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>169</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1805620494.305475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3243528859.573176</v>
+        <v>2429227614.569619</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1884228821931317</v>
+        <v>0.1319810560132292</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0504473774878284</v>
+        <v>0.04055279006947609</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>138</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1621764470.13009</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5300463680.200674</v>
+        <v>4866155674.660174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06845955273278748</v>
+        <v>0.09746141030773701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02073753861091894</v>
+        <v>0.03107040053964547</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>137</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2650231828.990873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3239709103.962258</v>
+        <v>3530283339.467359</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1629452199331196</v>
+        <v>0.1863965621215694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0363966793249191</v>
+        <v>0.04289355809823536</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>133</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1619854569.078307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1404306147.876165</v>
+        <v>1564789083.186051</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07403757259379176</v>
+        <v>0.07780646370600934</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04362799971939567</v>
+        <v>0.04883425331285794</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>702153137.7519103</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2710506236.742833</v>
+        <v>2719408401.686647</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0879318108746357</v>
+        <v>0.09208738170450616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04613883690175108</v>
+        <v>0.04241793642529183</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1355253130.391848</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3567173758.34573</v>
+        <v>4414717282.290858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1254414009190208</v>
+        <v>0.1062008414514487</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04728976701194208</v>
+        <v>0.03545599922553106</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1783586935.189429</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3650419048.201065</v>
+        <v>3112548544.587769</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1525926134004294</v>
+        <v>0.1151511262350876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02607455718460278</v>
+        <v>0.02857482306887403</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1825209507.337015</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1237683402.47607</v>
+        <v>1183398887.531837</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1311243879575721</v>
+        <v>0.1235692870091947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02606200904364849</v>
+        <v>0.01738119261911653</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>618841788.332463</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2435566743.820478</v>
+        <v>2532954387.870234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1075596523011879</v>
+        <v>0.1151832673314028</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02748348151430864</v>
+        <v>0.02414283998334984</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1217783351.88751</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2170793556.564215</v>
+        <v>2421332266.458825</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08674625727544856</v>
+        <v>0.06646080888432553</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0365209760760894</v>
+        <v>0.03581852551971201</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1085396797.930231</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3357170277.589562</v>
+        <v>2844800696.707064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08889141237537997</v>
+        <v>0.1381694675832278</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04144515607865901</v>
+        <v>0.04675413658581427</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>114</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1678585178.954684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1146515890.875467</v>
+        <v>1242804876.294173</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1304839205155255</v>
+        <v>0.1357963455877767</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03413407771391325</v>
+        <v>0.04408752010233644</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>573257990.9460347</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4065778044.007469</v>
+        <v>3080429291.657546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1421011918027201</v>
+        <v>0.1146700990218516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.033103913541958</v>
+        <v>0.03675904366393227</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2032888985.576197</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1142808499.909238</v>
+        <v>1023924393.241416</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09091119129045887</v>
+        <v>0.08451118819690985</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02291965346405263</v>
+        <v>0.02854665109770413</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>571404281.1017684</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1187788700.886712</v>
+        <v>1237636111.401066</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0938229416560097</v>
+        <v>0.09792626265359582</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03352062963175822</v>
+        <v>0.02551785745808495</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>593894368.5522656</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4107398424.259801</v>
+        <v>4360957280.071836</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1327482532960852</v>
+        <v>0.1007748774488502</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02110476727014976</v>
+        <v>0.01726531995205815</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2053699216.962284</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3507783617.853704</v>
+        <v>3814029333.805774</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1468920208847276</v>
+        <v>0.09496290864195692</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04129159693132636</v>
+        <v>0.04096478065956873</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1753891864.249031</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3861074325.178179</v>
+        <v>4463567979.539695</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1348540312933408</v>
+        <v>0.1009503363212119</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02831079230338818</v>
+        <v>0.02919963926702632</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>181</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1930537189.044588</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1514667136.679444</v>
+        <v>1619352409.412212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1293547908483673</v>
+        <v>0.1184505919147576</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03235971428901648</v>
+        <v>0.0396585151234306</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>757333550.522539</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1277803270.0042</v>
+        <v>929533209.6142468</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09520278085815483</v>
+        <v>0.09576382898958105</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03995704317113664</v>
+        <v>0.04703725398387461</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>638901568.1674351</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1483545246.699749</v>
+        <v>1710458252.371848</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09278749820798597</v>
+        <v>0.09304199615722508</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02948758393559861</v>
+        <v>0.03851895311554025</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>741772688.2913306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3019384313.792057</v>
+        <v>2388466325.998037</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1510646982745187</v>
+        <v>0.1870199878388592</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04176182711756275</v>
+        <v>0.04595414938610305</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>123</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1509692150.878119</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1072106147.179816</v>
+        <v>1168390157.807294</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1081405905697899</v>
+        <v>0.1192276431738872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0258595384596276</v>
+        <v>0.02627974134617019</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>536053099.6354248</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>888451104.6730368</v>
+        <v>1073061757.976521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07548819847742676</v>
+        <v>0.1071431700206789</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02752438419032003</v>
+        <v>0.03669894244883636</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>444225595.3901387</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2641766418.648674</v>
+        <v>2492619506.387937</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1130046669252055</v>
+        <v>0.1334764005029689</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02695699193279486</v>
+        <v>0.02460051760995867</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>103</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1320883219.93853</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2245574140.390356</v>
+        <v>2392303913.135186</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07572246025639263</v>
+        <v>0.09752848579479044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04255782574732113</v>
+        <v>0.02924077252920986</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1122787131.279342</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1957036170.952945</v>
+        <v>1868032600.025255</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1044531998525906</v>
+        <v>0.1129531661782705</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03017804522724124</v>
+        <v>0.03764211125477</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>978518070.1877887</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2168690700.268489</v>
+        <v>2124307553.503077</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1785974596911083</v>
+        <v>0.1463918177606048</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02871748752135572</v>
+        <v>0.03188863204727015</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1084345319.073332</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1595266557.531702</v>
+        <v>1304084103.361473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1168269941506134</v>
+        <v>0.1381709435085583</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0461973561957511</v>
+        <v>0.04165951510921258</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>797633221.1298703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2524712648.132121</v>
+        <v>2449403751.566724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1160461107374205</v>
+        <v>0.151125408254714</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04011540752967514</v>
+        <v>0.03957047923658705</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1262356346.908108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3363257631.92332</v>
+        <v>3970664581.897334</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1075061936670148</v>
+        <v>0.1179089672840343</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0391495002409274</v>
+        <v>0.04663264155591924</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1681628801.41423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2217448262.585131</v>
+        <v>2534025669.445271</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1298550662518183</v>
+        <v>0.1678779698367272</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02530361040624749</v>
+        <v>0.02073977769185773</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1108724208.385698</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2085160358.377662</v>
+        <v>2093194171.902312</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09588678727050755</v>
+        <v>0.1000529704877253</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02729375626702445</v>
+        <v>0.02304013420674993</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1042580302.524105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2169805058.078498</v>
+        <v>2429648790.839399</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1377333741541538</v>
+        <v>0.1833601616286588</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03733521333412511</v>
+        <v>0.04513075995020353</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1084902537.022523</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5307386983.149145</v>
+        <v>4427372186.991955</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1208186972710941</v>
+        <v>0.1574303862212343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06072505785197991</v>
+        <v>0.06069979576544011</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>146</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2653693535.986773</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4793348391.467046</v>
+        <v>3647264082.69949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2022818550904238</v>
+        <v>0.1684041171466643</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04446143076780538</v>
+        <v>0.05816263179463014</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2396674239.829754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3420331843.063117</v>
+        <v>4098444363.665478</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06769687752887968</v>
+        <v>0.08505417794240758</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02649546070843893</v>
+        <v>0.03509539068120966</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>134</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1710165989.639072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1338787773.017194</v>
+        <v>1986755776.523453</v>
       </c>
       <c r="F49" t="n">
-        <v>0.147871571894543</v>
+        <v>0.1401119689973247</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04314957218519569</v>
+        <v>0.04445283979364253</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>669393943.6183357</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3417170244.274521</v>
+        <v>3490722691.755913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1078761296743616</v>
+        <v>0.128418837487522</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03513688019255838</v>
+        <v>0.03656076737080602</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>140</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1708585152.296485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974212636.0444503</v>
+        <v>1313034537.902966</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1869921358780003</v>
+        <v>0.1901565024239665</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04030795685857948</v>
+        <v>0.04714430896214946</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>487106406.1809124</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4313235321.235206</v>
+        <v>4918782188.975589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194474086968047</v>
+        <v>0.08569158583055873</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05995736581589922</v>
+        <v>0.04701059936496477</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>169</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2156617698.676964</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3529977746.734417</v>
+        <v>3196480996.582844</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1255102810580748</v>
+        <v>0.1409962536978761</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02829402436114083</v>
+        <v>0.02625179974027496</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1764988869.240927</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3106172491.899026</v>
+        <v>4811868230.741126</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1085023553530866</v>
+        <v>0.1671723671390319</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04982798687871674</v>
+        <v>0.04321718441455812</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>133</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1553086239.852728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3650464142.94075</v>
+        <v>4442232419.465271</v>
       </c>
       <c r="F55" t="n">
-        <v>0.21148749218802</v>
+        <v>0.1796073316919131</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02407843308614023</v>
+        <v>0.02963394857850654</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1825232030.994071</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1525084531.742428</v>
+        <v>1375669426.58485</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1153404745653751</v>
+        <v>0.1149474422734175</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03970641510515305</v>
+        <v>0.05777374633856652</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>762542304.4364173</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3524480155.283155</v>
+        <v>3811585484.346697</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1185305669549274</v>
+        <v>0.118351685022197</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02452837102623565</v>
+        <v>0.02575548106669667</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1762240126.099467</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1556256324.011459</v>
+        <v>1787408990.910405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1262328277916442</v>
+        <v>0.200005401521183</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03760308667742703</v>
+        <v>0.03324013634475235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>778128188.034588</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4154719986.249092</v>
+        <v>4305856783.994479</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1015087594417013</v>
+        <v>0.1257229071743408</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04381486356189738</v>
+        <v>0.04551626010775719</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>114</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2077359961.629641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3727776098.045259</v>
+        <v>3400890347.785301</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1767885565623087</v>
+        <v>0.1402117205675993</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02726253431940738</v>
+        <v>0.0326210860493712</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1863888195.726537</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3123540943.598835</v>
+        <v>3111966834.097193</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1745425935546686</v>
+        <v>0.144852703445007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02990907683415812</v>
+        <v>0.0287392068127097</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>141</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1561770440.63238</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1935757468.753007</v>
+        <v>1642998348.535206</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168614646150513</v>
+        <v>0.1488466138356982</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04523366185110434</v>
+        <v>0.03522897117048349</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>967878782.820491</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4753205140.650537</v>
+        <v>4370682334.301685</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07640519558108487</v>
+        <v>0.09395976127883651</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03667494225850412</v>
+        <v>0.03176510701886619</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2376602599.117321</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4616848192.968127</v>
+        <v>3483602409.761395</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1346237629335252</v>
+        <v>0.1468485485496446</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02617109397806025</v>
+        <v>0.03025263419353459</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>127</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2308424175.749568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5764659400.101704</v>
+        <v>4142056436.846685</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1238319634781332</v>
+        <v>0.1354040682310942</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02105133817105769</v>
+        <v>0.02279902730420777</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>147</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2882329613.34019</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4541591642.94675</v>
+        <v>4790066193.836959</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1209141108932403</v>
+        <v>0.1194270531260831</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05024807425977974</v>
+        <v>0.04005905465154379</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2270795824.12779</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3076425540.184285</v>
+        <v>2153399428.722053</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06273931940214532</v>
+        <v>0.08185847782223389</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04952766966159496</v>
+        <v>0.03666204918334062</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>131</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1538212781.867584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5170971465.755927</v>
+        <v>4329031486.811144</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1468423917986156</v>
+        <v>0.1348581546664968</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05011488440798888</v>
+        <v>0.0515067737877645</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2585485799.643349</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1688952703.599857</v>
+        <v>1582377330.323601</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1825487414676999</v>
+        <v>0.1348212396628317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05286751584152893</v>
+        <v>0.04583293893340067</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>844476316.5523139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2465466533.447306</v>
+        <v>2313940991.289839</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0906033165352316</v>
+        <v>0.08776860065903633</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03190759536614285</v>
+        <v>0.03302688602904954</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>117</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1232733208.901469</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4172644350.649357</v>
+        <v>5533655606.862552</v>
       </c>
       <c r="F71" t="n">
-        <v>0.155804780794681</v>
+        <v>0.1448054285742254</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02936229632434094</v>
+        <v>0.02848949614103725</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>149</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2086322219.265214</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1431180481.000053</v>
+        <v>1424830264.325219</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09848013504223906</v>
+        <v>0.1063858460195861</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04738974024855171</v>
+        <v>0.05236297203026746</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>715590278.6147535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3455708769.394784</v>
+        <v>2492163285.291788</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0802714436702827</v>
+        <v>0.09440020480683783</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04518430665506684</v>
+        <v>0.0499750061241144</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1727854338.941943</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3321093807.127356</v>
+        <v>3098558668.470176</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1293092068441018</v>
+        <v>0.1397690582592688</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0251993996892401</v>
+        <v>0.02961379731659531</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>140</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1660546941.230231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1581482770.826417</v>
+        <v>2440085467.03081</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1142504687778277</v>
+        <v>0.1261373630848102</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02581263262901117</v>
+        <v>0.0369777718786837</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>790741388.8145227</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3259283119.681573</v>
+        <v>5067431834.473439</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08041664007678845</v>
+        <v>0.08687439800549325</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03078374445928263</v>
+        <v>0.02315546415757037</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1629641513.538244</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1834065886.564958</v>
+        <v>2266397112.963337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1509806053495946</v>
+        <v>0.1866440455880705</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02020042488396365</v>
+        <v>0.02149771816572601</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>917032980.3497268</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3648894883.93814</v>
+        <v>3291989632.156972</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1046628356658045</v>
+        <v>0.13509827800489</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04926508641403111</v>
+        <v>0.0531545495127901</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>142</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1824447432.823364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1650203815.059284</v>
+        <v>1696580550.960588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1617635772705778</v>
+        <v>0.1147307262961612</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02851328935389362</v>
+        <v>0.03348705473624682</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>825101968.0458062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5308836734.065958</v>
+        <v>3458356782.127744</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0722385640999275</v>
+        <v>0.08361223131549522</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02787614379941124</v>
+        <v>0.02815116962168262</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>87</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2654418431.618243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4438016556.659687</v>
+        <v>4670914593.681847</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1292698823799466</v>
+        <v>0.09537554001249067</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02798372978975334</v>
+        <v>0.02937939070494879</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>94</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2219008257.803476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5291816545.419112</v>
+        <v>4744785747.591501</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1848103737220759</v>
+        <v>0.1837690860797195</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01847655363939193</v>
+        <v>0.02881062799030211</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2645908240.38971</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1597083052.079655</v>
+        <v>1616349383.299388</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1341107616073763</v>
+        <v>0.1088263221034111</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0443624679960905</v>
+        <v>0.0357449644742901</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>798541461.2370367</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1581140077.091691</v>
+        <v>1964024842.850016</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1021551550306025</v>
+        <v>0.1114208801397455</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05232773495900735</v>
+        <v>0.04014754419072792</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>790570104.8941733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2336331038.106764</v>
+        <v>3383423385.058123</v>
       </c>
       <c r="F85" t="n">
-        <v>0.127256464891813</v>
+        <v>0.144904195276526</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05612594303618722</v>
+        <v>0.05313416077031955</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>155</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1168165505.951923</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2370724291.758387</v>
+        <v>2658911951.299015</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1391526955136294</v>
+        <v>0.1098866751905</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02130468556498301</v>
+        <v>0.02522902025435443</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1185362225.077494</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090103097.637879</v>
+        <v>1262082868.387388</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1865705119766195</v>
+        <v>0.1743433941950543</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04422679227418663</v>
+        <v>0.03459325220273215</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>545051576.249174</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2519535105.660878</v>
+        <v>2298295106.160607</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1397645810966846</v>
+        <v>0.1538042559639344</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03912645182998604</v>
+        <v>0.02820695701960376</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>162</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1259767535.802903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2424302971.93821</v>
+        <v>2671837362.833225</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1603117863908655</v>
+        <v>0.1596431921084984</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04135556927423954</v>
+        <v>0.02714479516805422</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1212151566.294835</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1432545622.508674</v>
+        <v>1636828307.84939</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08928967541912256</v>
+        <v>0.09067911649913382</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03747119947149009</v>
+        <v>0.05534877562795971</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>716272777.6348208</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2030250470.885567</v>
+        <v>1646890949.653673</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1637636115895951</v>
+        <v>0.1362783958738976</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04091972596847987</v>
+        <v>0.04892984589739997</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1015125203.694307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2764989848.18094</v>
+        <v>2413173028.726165</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1082944959204919</v>
+        <v>0.09521377325714291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04174368394921571</v>
+        <v>0.04236163327423644</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>118</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1382494928.067813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5020241939.66363</v>
+        <v>3745022777.08588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1049193831027836</v>
+        <v>0.129560786302123</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03683168123989852</v>
+        <v>0.03836178180155661</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2510120904.491322</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1830741627.503078</v>
+        <v>2428686304.325308</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1258958240156814</v>
+        <v>0.1554436216116689</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04246186526923432</v>
+        <v>0.0342167080466225</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>915370790.0587543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2994096308.708627</v>
+        <v>2151442456.295579</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0862291281406319</v>
+        <v>0.132642399809571</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03322157030554096</v>
+        <v>0.04114665529521841</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1497048154.520873</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1830375909.963958</v>
+        <v>1717993376.479491</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1172876642006333</v>
+        <v>0.1272191217926072</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03216083070837986</v>
+        <v>0.03526228637781011</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>915187960.0997376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3295912863.843461</v>
+        <v>3542394743.592314</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1300605242726986</v>
+        <v>0.1627079341047964</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02274531014008498</v>
+        <v>0.02185527803524655</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1647956431.685097</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3701314858.463431</v>
+        <v>3894400025.362606</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148029872181765</v>
+        <v>0.1158928914297161</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03082041677058376</v>
+        <v>0.02610512382714539</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1850657461.505111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2534120986.523054</v>
+        <v>2168912840.720369</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1252702398451123</v>
+        <v>0.1258335027659832</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02957517794695649</v>
+        <v>0.02464676902428017</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1267060445.459633</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3746239510.40792</v>
+        <v>3379501575.285851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1766531153103837</v>
+        <v>0.1496392287324188</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02796762900993402</v>
+        <v>0.02780776789856174</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>126</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1873119805.644975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2315494542.907499</v>
+        <v>2827789294.810596</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2183097128492224</v>
+        <v>0.1549914753353502</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03868651412532956</v>
+        <v>0.05407255137876833</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>165</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1157747270.042117</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_410.xlsx
+++ b/output/fit_clients/fit_round_410.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2012940119.066269</v>
+        <v>2462417703.96266</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08354155465253685</v>
+        <v>0.07471576002934073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03834514275451038</v>
+        <v>0.04142693571960464</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1736436644.728523</v>
+        <v>2050544731.46081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1814491277742092</v>
+        <v>0.115062443211215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04889288163301318</v>
+        <v>0.04352647453798876</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4815826723.021707</v>
+        <v>5251351166.791684</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1145474369967366</v>
+        <v>0.165121328912187</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02378056169648251</v>
+        <v>0.03079599464248291</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2671363696.919903</v>
+        <v>3390566055.916434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07167678566042755</v>
+        <v>0.09656219732237505</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04311979629991702</v>
+        <v>0.0421902173205573</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1958025288.409744</v>
+        <v>2161792369.580597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1006201593174557</v>
+        <v>0.1175783249266112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03842025121220408</v>
+        <v>0.0565993468948827</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1970932285.236473</v>
+        <v>2970175869.4264</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07404163204353575</v>
+        <v>0.0696476152083044</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03365305306104278</v>
+        <v>0.03196767555747257</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2445410277.595073</v>
+        <v>3523254828.789255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1650870441158133</v>
+        <v>0.1717179116315403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03274052299682575</v>
+        <v>0.03260990976270062</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1889484958.038337</v>
+        <v>1459990835.713901</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1967513470541307</v>
+        <v>0.121965521080937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02707794907488413</v>
+        <v>0.02467673350719426</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3763686285.425916</v>
+        <v>5950846865.68647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1983907425802947</v>
+        <v>0.1405665199917394</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05371258130373549</v>
+        <v>0.03671674706897173</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3962240947.632831</v>
+        <v>3907615288.146658</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1411484010037157</v>
+        <v>0.1844822194172573</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04327041804929537</v>
+        <v>0.03090037362450212</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2429227614.569619</v>
+        <v>2027848275.980656</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1319810560132292</v>
+        <v>0.1670538989586726</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04055279006947609</v>
+        <v>0.04424417182799055</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4866155674.660174</v>
+        <v>3465969675.50792</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09746141030773701</v>
+        <v>0.06992651218311556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03107040053964547</v>
+        <v>0.0226227947281952</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3530283339.467359</v>
+        <v>2971291456.98306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1863965621215694</v>
+        <v>0.1495426840907499</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04289355809823536</v>
+        <v>0.04159983493195565</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1564789083.186051</v>
+        <v>1114009879.04727</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07780646370600934</v>
+        <v>0.07562931593042656</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04883425331285794</v>
+        <v>0.03713628857778235</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2719408401.686647</v>
+        <v>1915777484.914394</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09208738170450616</v>
+        <v>0.09592077018148147</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04241793642529183</v>
+        <v>0.04269047947859857</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4414717282.290858</v>
+        <v>4804877509.704587</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1062008414514487</v>
+        <v>0.1671657517896863</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03545599922553106</v>
+        <v>0.0344358397582417</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3112548544.587769</v>
+        <v>2507241442.852387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1151511262350876</v>
+        <v>0.146291189460065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02857482306887403</v>
+        <v>0.02465701610201114</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1183398887.531837</v>
+        <v>930000329.0842712</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1235692870091947</v>
+        <v>0.1238047647548368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01738119261911653</v>
+        <v>0.01703823181970087</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2532954387.870234</v>
+        <v>1907401606.255261</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1151832673314028</v>
+        <v>0.1374402042710993</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02414283998334984</v>
+        <v>0.02098971869706099</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2421332266.458825</v>
+        <v>2305100019.362108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06646080888432553</v>
+        <v>0.09831808415033115</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03581852551971201</v>
+        <v>0.03067327814678029</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2844800696.707064</v>
+        <v>3312022476.656472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1381694675832278</v>
+        <v>0.104004719358087</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04675413658581427</v>
+        <v>0.04043135840528537</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1242804876.294173</v>
+        <v>1390495268.600033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1357963455877767</v>
+        <v>0.126460417178703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04408752010233644</v>
+        <v>0.04188660518919781</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3080429291.657546</v>
+        <v>3688812556.172677</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1146700990218516</v>
+        <v>0.122798872703563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03675904366393227</v>
+        <v>0.03027869126179476</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1023924393.241416</v>
+        <v>1305055420.002259</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08451118819690985</v>
+        <v>0.1101198969726446</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02854665109770413</v>
+        <v>0.02638757920133227</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1237636111.401066</v>
+        <v>1022694892.892288</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09792626265359582</v>
+        <v>0.09835011670466746</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02551785745808495</v>
+        <v>0.0358339215162739</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4360957280.071836</v>
+        <v>3282518685.966277</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1007748774488502</v>
+        <v>0.09797664478358988</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01726531995205815</v>
+        <v>0.02449909397821204</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3814029333.805774</v>
+        <v>3461588489.730563</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09496290864195692</v>
+        <v>0.1379649529013799</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04096478065956873</v>
+        <v>0.03083104863076708</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4463567979.539695</v>
+        <v>3970321637.751391</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1009503363212119</v>
+        <v>0.1442809458263627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02919963926702632</v>
+        <v>0.0422259144082449</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1619352409.412212</v>
+        <v>1747312434.338603</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1184505919147576</v>
+        <v>0.1115949627414359</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0396585151234306</v>
+        <v>0.02516940238826524</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>929533209.6142468</v>
+        <v>1283324377.179021</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09576382898958105</v>
+        <v>0.1045394677069911</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04703725398387461</v>
+        <v>0.03822352400455099</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1710458252.371848</v>
+        <v>1466264410.175882</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09304199615722508</v>
+        <v>0.1117540263102755</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03851895311554025</v>
+        <v>0.03057682430208342</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2388466325.998037</v>
+        <v>2678790465.252536</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1870199878388592</v>
+        <v>0.1744555116353897</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04595414938610305</v>
+        <v>0.04192894172519127</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1168390157.807294</v>
+        <v>1326470295.459985</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1192276431738872</v>
+        <v>0.1125898819118294</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02627974134617019</v>
+        <v>0.02041792264820319</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1073061757.976521</v>
+        <v>1104708613.465507</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1071431700206789</v>
+        <v>0.09435662977821017</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03669894244883636</v>
+        <v>0.04458009892839349</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2492619506.387937</v>
+        <v>2976786590.112476</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1334764005029689</v>
+        <v>0.1337836721385712</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02460051760995867</v>
+        <v>0.02431006004451988</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2392303913.135186</v>
+        <v>2922028397.170002</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09752848579479044</v>
+        <v>0.1088745915112053</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02924077252920986</v>
+        <v>0.02617823541578244</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1868032600.025255</v>
+        <v>2083564560.12945</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1129531661782705</v>
+        <v>0.0799228848564007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03764211125477</v>
+        <v>0.03939891056028815</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2124307553.503077</v>
+        <v>1609621441.710169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463918177606048</v>
+        <v>0.192110167023525</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03188863204727015</v>
+        <v>0.02997118293568993</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1304084103.361473</v>
+        <v>1618646647.347049</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1381709435085583</v>
+        <v>0.1228930171269123</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04165951510921258</v>
+        <v>0.05430413047369161</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2449403751.566724</v>
+        <v>1854964264.417536</v>
       </c>
       <c r="F41" t="n">
-        <v>0.151125408254714</v>
+        <v>0.1080147278197199</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03957047923658705</v>
+        <v>0.04263916743555755</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3970664581.897334</v>
+        <v>3886106547.292523</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1179089672840343</v>
+        <v>0.1269855482197079</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04663264155591924</v>
+        <v>0.04061971448577518</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2534025669.445271</v>
+        <v>2304271769.121028</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1678779698367272</v>
+        <v>0.1444370159200759</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02073977769185773</v>
+        <v>0.02036344386435713</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2093194171.902312</v>
+        <v>1603284440.033395</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000529704877253</v>
+        <v>0.07404868695887862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02304013420674993</v>
+        <v>0.02872048114069919</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2429648790.839399</v>
+        <v>2483481927.948524</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1833601616286588</v>
+        <v>0.1642921229274499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04513075995020353</v>
+        <v>0.04503844351002508</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4427372186.991955</v>
+        <v>4910587985.817645</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1574303862212343</v>
+        <v>0.1626654105867023</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06069979576544011</v>
+        <v>0.05975606030726199</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3647264082.69949</v>
+        <v>4993925312.923447</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1684041171466643</v>
+        <v>0.1389168127323386</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05816263179463014</v>
+        <v>0.03812573164692891</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4098444363.665478</v>
+        <v>3988385172.316503</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08505417794240758</v>
+        <v>0.06872536517809164</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03509539068120966</v>
+        <v>0.03085020601189171</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1986755776.523453</v>
+        <v>1579307402.18288</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1401119689973247</v>
+        <v>0.1655857550894374</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04445283979364253</v>
+        <v>0.03895986863665876</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3490722691.755913</v>
+        <v>3325499060.629833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.128418837487522</v>
+        <v>0.1658303037075871</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03656076737080602</v>
+        <v>0.03989002348951704</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1313034537.902966</v>
+        <v>1136439673.952047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1901565024239665</v>
+        <v>0.132654273382515</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04714430896214946</v>
+        <v>0.03828382277775663</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4918782188.975589</v>
+        <v>4217157810.47289</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08569158583055873</v>
+        <v>0.1111274646016322</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04701059936496477</v>
+        <v>0.04748411362507313</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3196480996.582844</v>
+        <v>3535365731.082986</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1409962536978761</v>
+        <v>0.1282054055265641</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02625179974027496</v>
+        <v>0.03284113856495233</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4811868230.741126</v>
+        <v>4326450025.470346</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1671723671390319</v>
+        <v>0.1150038032901383</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04321718441455812</v>
+        <v>0.04711053300774058</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4442232419.465271</v>
+        <v>3983843070.500665</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1796073316919131</v>
+        <v>0.1842993426183381</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02963394857850654</v>
+        <v>0.01981161596630242</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1375669426.58485</v>
+        <v>1271466830.829552</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1149474422734175</v>
+        <v>0.1266779622707212</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05777374633856652</v>
+        <v>0.05597278338892628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3811585484.346697</v>
+        <v>3678829942.017672</v>
       </c>
       <c r="F57" t="n">
-        <v>0.118351685022197</v>
+        <v>0.1459624387225407</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02575548106669667</v>
+        <v>0.01746292167370835</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1787408990.910405</v>
+        <v>1185739749.975928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.200005401521183</v>
+        <v>0.1901183360161261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03324013634475235</v>
+        <v>0.03823173756123917</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4305856783.994479</v>
+        <v>4632276584.662703</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1257229071743408</v>
+        <v>0.09223773774086681</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04551626010775719</v>
+        <v>0.03763161047607284</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3400890347.785301</v>
+        <v>2682341464.183158</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1402117205675993</v>
+        <v>0.1509638659325404</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0326210860493712</v>
+        <v>0.02415374890891896</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3111966834.097193</v>
+        <v>2477621605.72453</v>
       </c>
       <c r="F61" t="n">
-        <v>0.144852703445007</v>
+        <v>0.1590387987592365</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0287392068127097</v>
+        <v>0.03023497125627582</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1642998348.535206</v>
+        <v>1751025986.153674</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1488466138356982</v>
+        <v>0.184119345735968</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03522897117048349</v>
+        <v>0.03968343312623455</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4370682334.301685</v>
+        <v>3814139587.585844</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09395976127883651</v>
+        <v>0.09746493192927834</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03176510701886619</v>
+        <v>0.0455389611205516</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3483602409.761395</v>
+        <v>3868240225.384446</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1468485485496446</v>
+        <v>0.1847712895778607</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03025263419353459</v>
+        <v>0.02601068099979766</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4142056436.846685</v>
+        <v>3763994738.338992</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1354040682310942</v>
+        <v>0.1387386677842378</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02279902730420777</v>
+        <v>0.02533251127718623</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4790066193.836959</v>
+        <v>5386726679.707335</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1194270531260831</v>
+        <v>0.1012328874318829</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04005905465154379</v>
+        <v>0.03288172994275314</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2153399428.722053</v>
+        <v>2687174246.180558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08185847782223389</v>
+        <v>0.09227153577776921</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03666204918334062</v>
+        <v>0.03241993062806794</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4329031486.811144</v>
+        <v>6080256920.426444</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1348581546664968</v>
+        <v>0.1539376185059756</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0515067737877645</v>
+        <v>0.03317634260642062</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1582377330.323601</v>
+        <v>2274393451.266932</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1348212396628317</v>
+        <v>0.1202860139455748</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04583293893340067</v>
+        <v>0.05942799509908832</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2313940991.289839</v>
+        <v>2727232186.079898</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08776860065903633</v>
+        <v>0.09659641524877546</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03302688602904954</v>
+        <v>0.04793155423966711</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533655606.862552</v>
+        <v>4352810996.316278</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1448054285742254</v>
+        <v>0.1232013084904922</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02848949614103725</v>
+        <v>0.03252795967404204</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1424830264.325219</v>
+        <v>1575375976.814916</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063858460195861</v>
+        <v>0.08496939703736198</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05236297203026746</v>
+        <v>0.0489681647342145</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2492163285.291788</v>
+        <v>2730466540.741346</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09440020480683783</v>
+        <v>0.1027471493092318</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0499750061241144</v>
+        <v>0.03535003888015787</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3098558668.470176</v>
+        <v>3729282489.461973</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1397690582592688</v>
+        <v>0.1639176619955752</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02961379731659531</v>
+        <v>0.02514035250867692</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2440085467.03081</v>
+        <v>2263116467.429536</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1261373630848102</v>
+        <v>0.1599990666801065</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0369777718786837</v>
+        <v>0.02481371189873941</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5067431834.473439</v>
+        <v>5285206934.911475</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08687439800549325</v>
+        <v>0.105683903014547</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02315546415757037</v>
+        <v>0.02738462729165727</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2266397112.963337</v>
+        <v>2025793288.201664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1866440455880705</v>
+        <v>0.1761560677529135</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149771816572601</v>
+        <v>0.02723313358807631</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3291989632.156972</v>
+        <v>3465431803.69496</v>
       </c>
       <c r="F78" t="n">
-        <v>0.13509827800489</v>
+        <v>0.1259084639199863</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0531545495127901</v>
+        <v>0.04646807863491015</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1696580550.960588</v>
+        <v>1706354455.787058</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1147307262961612</v>
+        <v>0.1157056981717275</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03348705473624682</v>
+        <v>0.02805637450454129</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3458356782.127744</v>
+        <v>4994225382.696209</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08361223131549522</v>
+        <v>0.1069549336081883</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02815116962168262</v>
+        <v>0.02444227201650826</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4670914593.681847</v>
+        <v>3652770098.190751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09537554001249067</v>
+        <v>0.1046369826397958</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02937939070494879</v>
+        <v>0.02367115079219559</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4744785747.591501</v>
+        <v>4582999493.154983</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1837690860797195</v>
+        <v>0.2098930709427093</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02881062799030211</v>
+        <v>0.02481801434793523</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1616349383.299388</v>
+        <v>1716896592.168339</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1088263221034111</v>
+        <v>0.1541754865434339</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0357449644742901</v>
+        <v>0.03709038982813875</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1964024842.850016</v>
+        <v>2196452275.962302</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1114208801397455</v>
+        <v>0.08754444052625568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04014754419072792</v>
+        <v>0.03166672814298864</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3383423385.058123</v>
+        <v>3252460254.076941</v>
       </c>
       <c r="F85" t="n">
-        <v>0.144904195276526</v>
+        <v>0.1776301350389114</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05313416077031955</v>
+        <v>0.04470920962302728</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2658911951.299015</v>
+        <v>1925777814.556503</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1098866751905</v>
+        <v>0.1664770309077467</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02522902025435443</v>
+        <v>0.02354639341639525</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1262082868.387388</v>
+        <v>1256407027.0305</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1743433941950543</v>
+        <v>0.1321989469602515</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03459325220273215</v>
+        <v>0.0340273287603365</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2298295106.160607</v>
+        <v>3625952270.204274</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1538042559639344</v>
+        <v>0.1363290993368032</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02820695701960376</v>
+        <v>0.02901130129230313</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2671837362.833225</v>
+        <v>2881775307.955028</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1596431921084984</v>
+        <v>0.1199770242113052</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02714479516805422</v>
+        <v>0.0411120915211269</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1636828307.84939</v>
+        <v>1770729092.582981</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09067911649913382</v>
+        <v>0.1246913049038515</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05534877562795971</v>
+        <v>0.04152138445530643</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1646890949.653673</v>
+        <v>1306869287.871281</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1362783958738976</v>
+        <v>0.1623991643431076</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04892984589739997</v>
+        <v>0.04768081159030167</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2413173028.726165</v>
+        <v>2144583381.65258</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09521377325714291</v>
+        <v>0.08046425330223993</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04236163327423644</v>
+        <v>0.02989202873762933</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3745022777.08588</v>
+        <v>3426400224.039715</v>
       </c>
       <c r="F93" t="n">
-        <v>0.129560786302123</v>
+        <v>0.1361105980839744</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03836178180155661</v>
+        <v>0.04893674503832732</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2428686304.325308</v>
+        <v>1911849100.961919</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1554436216116689</v>
+        <v>0.1517015531346884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0342167080466225</v>
+        <v>0.03396685355790371</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2151442456.295579</v>
+        <v>2245137589.894116</v>
       </c>
       <c r="F95" t="n">
-        <v>0.132642399809571</v>
+        <v>0.09335153508508905</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04114665529521841</v>
+        <v>0.05083921436453635</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1717993376.479491</v>
+        <v>1562124849.692402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1272191217926072</v>
+        <v>0.1237519587669875</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03526228637781011</v>
+        <v>0.03265736942879251</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3542394743.592314</v>
+        <v>3801923798.541463</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1627079341047964</v>
+        <v>0.1194341325649374</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02185527803524655</v>
+        <v>0.0186036897820706</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3894400025.362606</v>
+        <v>3440642505.686013</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1158928914297161</v>
+        <v>0.08973710338825013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02610512382714539</v>
+        <v>0.02811414894736851</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2168912840.720369</v>
+        <v>2406617597.074632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1258335027659832</v>
+        <v>0.09646825536259522</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02464676902428017</v>
+        <v>0.03309025188338696</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3379501575.285851</v>
+        <v>2973147849.279247</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1496392287324188</v>
+        <v>0.1794030814780424</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02780776789856174</v>
+        <v>0.0270780545424667</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2827789294.810596</v>
+        <v>3171243868.559305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1549914753353502</v>
+        <v>0.1738303165097002</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05407255137876833</v>
+        <v>0.05068387040045234</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_410.xlsx
+++ b/output/fit_clients/fit_round_410.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2462417703.96266</v>
+        <v>2028103347.920697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07471576002934073</v>
+        <v>0.1058813687042946</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04142693571960464</v>
+        <v>0.02793839135413596</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2050544731.46081</v>
+        <v>2629247402.31522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115062443211215</v>
+        <v>0.1682040143707725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04352647453798876</v>
+        <v>0.04609660984353166</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5251351166.791684</v>
+        <v>3242014503.035995</v>
       </c>
       <c r="F4" t="n">
-        <v>0.165121328912187</v>
+        <v>0.1311519803022228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03079599464248291</v>
+        <v>0.02546806116054822</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J4" t="n">
+        <v>408</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3390566055.916434</v>
+        <v>3555641914.193076</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09656219732237505</v>
+        <v>0.09695435899402348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0421902173205573</v>
+        <v>0.04391659287640996</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>167</v>
+      </c>
+      <c r="J5" t="n">
+        <v>410</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.7353343263021</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2161792369.580597</v>
+        <v>2774514619.813701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175783249266112</v>
+        <v>0.09983503586617357</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0565993468948827</v>
+        <v>0.04812201633686557</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2970175869.4264</v>
+        <v>2083604477.312525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0696476152083044</v>
+        <v>0.06412327422647016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03196767555747257</v>
+        <v>0.03123047447538875</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3523254828.789255</v>
+        <v>2605552295.262664</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1717179116315403</v>
+        <v>0.1630453236238016</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03260990976270062</v>
+        <v>0.02062694711242732</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>112</v>
+      </c>
+      <c r="J8" t="n">
+        <v>409</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.78795171416743</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1459990835.713901</v>
+        <v>1937505783.08237</v>
       </c>
       <c r="F9" t="n">
-        <v>0.121965521080937</v>
+        <v>0.1394793613929464</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02467673350719426</v>
+        <v>0.02378436894504811</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5950846865.68647</v>
+        <v>5114626177.817956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1405665199917394</v>
+        <v>0.1854520314065639</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03671674706897173</v>
+        <v>0.05302351494496324</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>329</v>
+      </c>
+      <c r="J10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3907615288.146658</v>
+        <v>4268167842.764341</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1844822194172573</v>
+        <v>0.1768160234692182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03090037362450212</v>
+        <v>0.04022083800352206</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>170</v>
+      </c>
+      <c r="J11" t="n">
+        <v>410</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2027848275.980656</v>
+        <v>2746717393.426281</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1670538989586726</v>
+        <v>0.1462890615944077</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04424417182799055</v>
+        <v>0.03441192248874671</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3465969675.50792</v>
+        <v>4914980803.550714</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06992651218311556</v>
+        <v>0.09255347316045354</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0226227947281952</v>
+        <v>0.02796535208851435</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>214</v>
+      </c>
+      <c r="J13" t="n">
+        <v>409</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44.47250516967759</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2971291456.98306</v>
+        <v>2977790815.906095</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1495426840907499</v>
+        <v>0.1824377829895882</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04159983493195565</v>
+        <v>0.03393401180860726</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1114009879.04727</v>
+        <v>1723014095.288507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07562931593042656</v>
+        <v>0.09320010785412136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03713628857778235</v>
+        <v>0.04175651882249785</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1915777484.914394</v>
+        <v>2720562245.436518</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09592077018148147</v>
+        <v>0.08161009666321664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04269047947859857</v>
+        <v>0.04908776109316444</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4804877509.704587</v>
+        <v>3552555287.774887</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1671657517896863</v>
+        <v>0.1101338902426916</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0344358397582417</v>
+        <v>0.04630893293315517</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>198</v>
+      </c>
+      <c r="J17" t="n">
+        <v>408</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2507241442.852387</v>
+        <v>3643436545.479051</v>
       </c>
       <c r="F18" t="n">
-        <v>0.146291189460065</v>
+        <v>0.1423257711373744</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02465701610201114</v>
+        <v>0.0215681410958723</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>103</v>
+      </c>
+      <c r="J18" t="n">
+        <v>410</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>930000329.0842712</v>
+        <v>1062194397.47281</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1238047647548368</v>
+        <v>0.1409113603478828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01703823181970087</v>
+        <v>0.01896071377019118</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1907401606.255261</v>
+        <v>2689021086.420319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1374402042710993</v>
+        <v>0.1582202040582139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02098971869706099</v>
+        <v>0.02808486729985208</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2305100019.362108</v>
+        <v>1981860508.20444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09831808415033115</v>
+        <v>0.09171681059917754</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03067327814678029</v>
+        <v>0.0416732880004556</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3312022476.656472</v>
+        <v>3473854249.893722</v>
       </c>
       <c r="F22" t="n">
-        <v>0.104004719358087</v>
+        <v>0.09171186980030696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04043135840528537</v>
+        <v>0.04327301170800091</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1390495268.600033</v>
+        <v>1087902134.597826</v>
       </c>
       <c r="F23" t="n">
-        <v>0.126460417178703</v>
+        <v>0.1181927021316604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04188660518919781</v>
+        <v>0.05400121127675565</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3688812556.172677</v>
+        <v>4029868896.719638</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122798872703563</v>
+        <v>0.1157632200651064</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03027869126179476</v>
+        <v>0.03627564296079664</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>128</v>
+      </c>
+      <c r="J24" t="n">
+        <v>410</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1305055420.002259</v>
+        <v>1174033432.652573</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1101198969726446</v>
+        <v>0.08254763382175258</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02638757920133227</v>
+        <v>0.02296405897993917</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1022694892.892288</v>
+        <v>974466739.4723656</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09835011670466746</v>
+        <v>0.1089578242183987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0358339215162739</v>
+        <v>0.03148889352978483</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3282518685.966277</v>
+        <v>4604244198.748717</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09797664478358988</v>
+        <v>0.1234803325596133</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02449909397821204</v>
+        <v>0.02237765888711656</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>173</v>
+      </c>
+      <c r="J27" t="n">
+        <v>410</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49.16238797093771</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3461588489.730563</v>
+        <v>3408128184.720924</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1379649529013799</v>
+        <v>0.1062946767140422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03083104863076708</v>
+        <v>0.03630354483378096</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" t="n">
+        <v>410</v>
+      </c>
+      <c r="K28" t="n">
+        <v>46.533249840485</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3970321637.751391</v>
+        <v>4548390144.128779</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1442809458263627</v>
+        <v>0.1197152584468681</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0422259144082449</v>
+        <v>0.03794933960051739</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>345</v>
+      </c>
+      <c r="J29" t="n">
+        <v>409</v>
+      </c>
+      <c r="K29" t="n">
+        <v>43.89220555131046</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747312434.338603</v>
+        <v>1990928512.646508</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115949627414359</v>
+        <v>0.1243078668191642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02516940238826524</v>
+        <v>0.03197077781052463</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1283324377.179021</v>
+        <v>1429640133.139833</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1045394677069911</v>
+        <v>0.08028378316906963</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03822352400455099</v>
+        <v>0.04913787049990358</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1466264410.175882</v>
+        <v>1150707915.659657</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1117540263102755</v>
+        <v>0.09177418046600211</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03057682430208342</v>
+        <v>0.02391108533005056</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2678790465.252536</v>
+        <v>2218499211.101158</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744555116353897</v>
+        <v>0.1914710258916101</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04192894172519127</v>
+        <v>0.04206436666094518</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1326470295.459985</v>
+        <v>1367045458.513795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1125898819118294</v>
+        <v>0.08512333030225328</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02041792264820319</v>
+        <v>0.02307226674813194</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1104708613.465507</v>
+        <v>1071035594.75028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09435662977821017</v>
+        <v>0.08279173159792504</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04458009892839349</v>
+        <v>0.04159678423434917</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2976786590.112476</v>
+        <v>2393634087.367148</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1337836721385712</v>
+        <v>0.1386867148415134</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02431006004451988</v>
+        <v>0.02276500995901994</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2922028397.170002</v>
+        <v>2419057540.254436</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1088745915112053</v>
+        <v>0.07495940498292959</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02617823541578244</v>
+        <v>0.04106086126723166</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2083564560.12945</v>
+        <v>1984855716.510973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0799228848564007</v>
+        <v>0.1213618574422668</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03939891056028815</v>
+        <v>0.03174870927757748</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1609621441.710169</v>
+        <v>1352280436.095158</v>
       </c>
       <c r="F39" t="n">
-        <v>0.192110167023525</v>
+        <v>0.1505391010743185</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02997118293568993</v>
+        <v>0.03099744165065921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1618646647.347049</v>
+        <v>1221725985.316269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1228930171269123</v>
+        <v>0.1183660594639248</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05430413047369161</v>
+        <v>0.03645438242777829</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1854964264.417536</v>
+        <v>2535764199.427431</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1080147278197199</v>
+        <v>0.1034715460719315</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04263916743555755</v>
+        <v>0.0334229924523872</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3886106547.292523</v>
+        <v>3636726017.506211</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1269855482197079</v>
+        <v>0.1015559278969179</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04061971448577518</v>
+        <v>0.03427809380010237</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="n">
+        <v>44.0476363072896</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2304271769.121028</v>
+        <v>2242887989.035385</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1444370159200759</v>
+        <v>0.1584041050807705</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02036344386435713</v>
+        <v>0.0229300661589255</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1603284440.033395</v>
+        <v>1815824053.799216</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07404868695887862</v>
+        <v>0.08859272770387172</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02872048114069919</v>
+        <v>0.0337791594776957</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2483481927.948524</v>
+        <v>2378624289.535717</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1642921229274499</v>
+        <v>0.1384733107958205</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04503844351002508</v>
+        <v>0.04283942316341353</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4910587985.817645</v>
+        <v>4810331243.886581</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1626654105867023</v>
+        <v>0.1298612352176145</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05975606030726199</v>
+        <v>0.04463977524936134</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>246</v>
+      </c>
+      <c r="J46" t="n">
+        <v>410</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4993925312.923447</v>
+        <v>3628721713.998739</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1389168127323386</v>
+        <v>0.1999909129768097</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03812573164692891</v>
+        <v>0.03870330945154992</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>184</v>
+      </c>
+      <c r="J47" t="n">
+        <v>408</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3988385172.316503</v>
+        <v>3562284845.186487</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06872536517809164</v>
+        <v>0.1050055290355616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03085020601189171</v>
+        <v>0.03227648290727785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>211</v>
+      </c>
+      <c r="J48" t="n">
+        <v>408</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1579307402.18288</v>
+        <v>1981521917.00562</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1655857550894374</v>
+        <v>0.1450254540436313</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03895986863665876</v>
+        <v>0.03531547367232343</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3325499060.629833</v>
+        <v>3375141993.731642</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1658303037075871</v>
+        <v>0.1785654461269832</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03989002348951704</v>
+        <v>0.03261755536790944</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>142</v>
+      </c>
+      <c r="J50" t="n">
+        <v>409</v>
+      </c>
+      <c r="K50" t="n">
+        <v>37.03655224922024</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1136439673.952047</v>
+        <v>1325956724.810723</v>
       </c>
       <c r="F51" t="n">
-        <v>0.132654273382515</v>
+        <v>0.1452451100743812</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03828382277775663</v>
+        <v>0.04617323486420492</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4217157810.47289</v>
+        <v>5291093721.340053</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1111274646016322</v>
+        <v>0.09385825457852653</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04748411362507313</v>
+        <v>0.03860437508765928</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>237</v>
+      </c>
+      <c r="J52" t="n">
+        <v>410</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3535365731.082986</v>
+        <v>3513209464.161541</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1282054055265641</v>
+        <v>0.1267908894042837</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03284113856495233</v>
+        <v>0.02697577174048266</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>58</v>
+      </c>
+      <c r="J53" t="n">
+        <v>410</v>
+      </c>
+      <c r="K53" t="n">
+        <v>53.04080963784742</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4326450025.470346</v>
+        <v>3540037133.870484</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1150038032901383</v>
+        <v>0.1528724974615747</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04711053300774058</v>
+        <v>0.04067898006684049</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>219</v>
+      </c>
+      <c r="J54" t="n">
+        <v>408</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3983843070.500665</v>
+        <v>3009008971.364043</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1842993426183381</v>
+        <v>0.1690695003772623</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01981161596630242</v>
+        <v>0.02805818222624106</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>202</v>
+      </c>
+      <c r="J55" t="n">
+        <v>409</v>
+      </c>
+      <c r="K55" t="n">
+        <v>24.83997471490772</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1271466830.829552</v>
+        <v>1279299123.946687</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1266779622707212</v>
+        <v>0.1529241326512299</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05597278338892628</v>
+        <v>0.03666794406551586</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3678829942.017672</v>
+        <v>4257867674.477396</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1459624387225407</v>
+        <v>0.1487641952790354</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01746292167370835</v>
+        <v>0.02196098388343297</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>177</v>
+      </c>
+      <c r="J57" t="n">
+        <v>409</v>
+      </c>
+      <c r="K57" t="n">
+        <v>44.48921480124993</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1185739749.975928</v>
+        <v>1381971969.987013</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1901183360161261</v>
+        <v>0.1629898559380232</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03823173756123917</v>
+        <v>0.03167036373355675</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4632276584.662703</v>
+        <v>4267813189.447794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09223773774086681</v>
+        <v>0.08899519671919226</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03763161047607284</v>
+        <v>0.0471851383980726</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>200</v>
+      </c>
+      <c r="J59" t="n">
+        <v>410</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2682341464.183158</v>
+        <v>3780482917.045387</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1509638659325404</v>
+        <v>0.2068755310275976</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02415374890891896</v>
+        <v>0.02705450756524914</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>410</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2477621605.72453</v>
+        <v>2546984007.542969</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1590387987592365</v>
+        <v>0.1099583297738443</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03023497125627582</v>
+        <v>0.02532782561233643</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1751025986.153674</v>
+        <v>1452602579.741944</v>
       </c>
       <c r="F62" t="n">
-        <v>0.184119345735968</v>
+        <v>0.1418805717527834</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03968343312623455</v>
+        <v>0.03689126632634171</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3814139587.585844</v>
+        <v>5061695059.297559</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09746493192927834</v>
+        <v>0.07966903491528693</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0455389611205516</v>
+        <v>0.03469549498980671</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>205</v>
+      </c>
+      <c r="J63" t="n">
+        <v>409</v>
+      </c>
+      <c r="K63" t="n">
+        <v>41.97725102977951</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3868240225.384446</v>
+        <v>5213152060.539104</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1847712895778607</v>
+        <v>0.1732320840197578</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02601068099979766</v>
+        <v>0.03399232102461848</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>205</v>
+      </c>
+      <c r="J64" t="n">
+        <v>410</v>
+      </c>
+      <c r="K64" t="n">
+        <v>46.20090317451861</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3763994738.338992</v>
+        <v>4027468932.210662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387386677842378</v>
+        <v>0.1701784276360835</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02533251127718623</v>
+        <v>0.02525921093302383</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>302</v>
+      </c>
+      <c r="J65" t="n">
+        <v>409</v>
+      </c>
+      <c r="K65" t="n">
+        <v>42.33628228096569</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5386726679.707335</v>
+        <v>4394840258.087901</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1012328874318829</v>
+        <v>0.130988847901312</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03288172994275314</v>
+        <v>0.04943310044285744</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>202</v>
+      </c>
+      <c r="J66" t="n">
+        <v>410</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2687174246.180558</v>
+        <v>3168036008.016474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09227153577776921</v>
+        <v>0.08883807670996781</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03241993062806794</v>
+        <v>0.04601743990964712</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6080256920.426444</v>
+        <v>4360670681.074442</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539376185059756</v>
+        <v>0.1282378389784165</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03317634260642062</v>
+        <v>0.0469521267306563</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>223</v>
+      </c>
+      <c r="J68" t="n">
+        <v>410</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2274393451.266932</v>
+        <v>2048496019.769618</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1202860139455748</v>
+        <v>0.1773390623881311</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05942799509908832</v>
+        <v>0.05060001502047046</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2727232186.079898</v>
+        <v>2554746160.043505</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09659641524877546</v>
+        <v>0.0958852882747346</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04793155423966711</v>
+        <v>0.03501889443517929</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4352810996.316278</v>
+        <v>4973155750.724371</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1232013084904922</v>
+        <v>0.1526810822853226</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03252795967404204</v>
+        <v>0.03331604195042174</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>289</v>
+      </c>
+      <c r="J71" t="n">
+        <v>409</v>
+      </c>
+      <c r="K71" t="n">
+        <v>45.00103402177007</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1575375976.814916</v>
+        <v>1455189154.769624</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08496939703736198</v>
+        <v>0.07056007492144163</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0489681647342145</v>
+        <v>0.04266418588462498</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2730466540.741346</v>
+        <v>2334893978.848407</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1027471493092318</v>
+        <v>0.1082901305511977</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03535003888015787</v>
+        <v>0.04779032073975404</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3729282489.461973</v>
+        <v>2861799019.028637</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1639176619955752</v>
+        <v>0.1750957758971002</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02514035250867692</v>
+        <v>0.03073712857135264</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>116</v>
+      </c>
+      <c r="J74" t="n">
+        <v>409</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.79365906961132</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2263116467.429536</v>
+        <v>2454581102.043152</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1599990666801065</v>
+        <v>0.1413050765612488</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02481371189873941</v>
+        <v>0.0334731053345567</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5285206934.911475</v>
+        <v>4457268131.03703</v>
       </c>
       <c r="F76" t="n">
-        <v>0.105683903014547</v>
+        <v>0.08362957990273499</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02738462729165727</v>
+        <v>0.02848804246009009</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>194</v>
+      </c>
+      <c r="J76" t="n">
+        <v>410</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2025793288.201664</v>
+        <v>1936406790.377995</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1761560677529135</v>
+        <v>0.1742053015907818</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02723313358807631</v>
+        <v>0.02858191303825763</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3465431803.69496</v>
+        <v>4567878824.344897</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1259084639199863</v>
+        <v>0.1095906509601512</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04646807863491015</v>
+        <v>0.03610237325850596</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>204</v>
+      </c>
+      <c r="J78" t="n">
+        <v>410</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1706354455.787058</v>
+        <v>1919221438.815282</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1157056981717275</v>
+        <v>0.1319972568219339</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02805637450454129</v>
+        <v>0.03541195310634905</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4994225382.696209</v>
+        <v>4724517819.935478</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1069549336081883</v>
+        <v>0.108039594196491</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02444227201650826</v>
+        <v>0.02563724357774239</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>200</v>
+      </c>
+      <c r="J80" t="n">
+        <v>410</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3652770098.190751</v>
+        <v>4985454361.887878</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1046369826397958</v>
+        <v>0.1118487157075568</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02367115079219559</v>
+        <v>0.01991350086042722</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>190</v>
+      </c>
+      <c r="J81" t="n">
+        <v>410</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4582999493.154983</v>
+        <v>4765208221.795155</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2098930709427093</v>
+        <v>0.1488278409558455</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02481801434793523</v>
+        <v>0.02068454099336503</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>279</v>
+      </c>
+      <c r="J82" t="n">
+        <v>410</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1716896592.168339</v>
+        <v>1758026017.892148</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1541754865434339</v>
+        <v>0.1021264539083718</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03709038982813875</v>
+        <v>0.03190613531042072</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2196452275.962302</v>
+        <v>2096682285.62445</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08754444052625568</v>
+        <v>0.1050132975552589</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03166672814298864</v>
+        <v>0.04050633231003307</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3252460254.076941</v>
+        <v>3084905247.737697</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1776301350389114</v>
+        <v>0.1391008425811752</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04470920962302728</v>
+        <v>0.05601889434500454</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1925777814.556503</v>
+        <v>2437553204.881607</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1664770309077467</v>
+        <v>0.1572857955950232</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02354639341639525</v>
+        <v>0.02256634321610945</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1256407027.0305</v>
+        <v>921789507.8284899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1321989469602515</v>
+        <v>0.1548058773428862</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0340273287603365</v>
+        <v>0.04204911092888235</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3625952270.204274</v>
+        <v>2430211464.160745</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1363290993368032</v>
+        <v>0.1667603444415107</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02901130129230313</v>
+        <v>0.02951204703009016</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="n">
+        <v>26.83435571616459</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2881775307.955028</v>
+        <v>2901203262.306881</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1199770242113052</v>
+        <v>0.1483594469505028</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0411120915211269</v>
+        <v>0.0381316691952578</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1770729092.582981</v>
+        <v>1458650842.047305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1246913049038515</v>
+        <v>0.1053947068604445</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04152138445530643</v>
+        <v>0.04770980846817298</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1306869287.871281</v>
+        <v>1935520826.076931</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1623991643431076</v>
+        <v>0.1921421967084952</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04768081159030167</v>
+        <v>0.04079245024570284</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2144583381.65258</v>
+        <v>2064109441.901096</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08046425330223993</v>
+        <v>0.08354199793290935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02989202873762933</v>
+        <v>0.02939801896485079</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3426400224.039715</v>
+        <v>4926614542.29898</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1361105980839744</v>
+        <v>0.1266192802405409</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04893674503832732</v>
+        <v>0.05358054013072488</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>196</v>
+      </c>
+      <c r="J93" t="n">
+        <v>409</v>
+      </c>
+      <c r="K93" t="n">
+        <v>43.1694586620379</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1911849100.961919</v>
+        <v>2111315373.225187</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1517015531346884</v>
+        <v>0.1304717773029493</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03396685355790371</v>
+        <v>0.04059062043650914</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2245137589.894116</v>
+        <v>2764185043.8986</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09335153508508905</v>
+        <v>0.0878175269282796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05083921436453635</v>
+        <v>0.04883572235644518</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1562124849.692402</v>
+        <v>2129160319.245601</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1237519587669875</v>
+        <v>0.1010764043109516</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03265736942879251</v>
+        <v>0.0412666096303972</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3801923798.541463</v>
+        <v>4604597281.954247</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1194341325649374</v>
+        <v>0.162341165700789</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0186036897820706</v>
+        <v>0.02694890360658416</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>214</v>
+      </c>
+      <c r="J97" t="n">
+        <v>409</v>
+      </c>
+      <c r="K97" t="n">
+        <v>44.96222337290647</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3440642505.686013</v>
+        <v>3268215216.992368</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08973710338825013</v>
+        <v>0.08737841782866665</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02811414894736851</v>
+        <v>0.03071917565863303</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2406617597.074632</v>
+        <v>2084591359.032185</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09646825536259522</v>
+        <v>0.1000398855774175</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03309025188338696</v>
+        <v>0.02687880077579766</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2973147849.279247</v>
+        <v>4539642715.501213</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794030814780424</v>
+        <v>0.1774197877151423</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0270780545424667</v>
+        <v>0.01850655379754653</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>191</v>
+      </c>
+      <c r="J100" t="n">
+        <v>409</v>
+      </c>
+      <c r="K100" t="n">
+        <v>44.45790963041699</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3171243868.559305</v>
+        <v>2697218758.886772</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1738303165097002</v>
+        <v>0.1377623495215529</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05068387040045234</v>
+        <v>0.04469668249052657</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
